--- a/Prototype/Test/result/dpt1.xlsx
+++ b/Prototype/Test/result/dpt1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugurm\Desktop\gan matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repositories\IMMD\Prototype\Test\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18090" windowHeight="11580"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18090" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,15 +481,15 @@
         <v>14</v>
       </c>
       <c r="J3" s="1">
-        <f>(H3-A3)/I3</f>
+        <f t="shared" ref="J3:J13" si="0">(H3-A3)/I3</f>
         <v>2.4499999999999997</v>
       </c>
       <c r="K3" s="1">
-        <f>I3-(F3-A3)/J3</f>
+        <f t="shared" ref="K3:K13" si="1">I3-(F3-A3)/J3</f>
         <v>7.7142857142857144</v>
       </c>
       <c r="L3" s="1">
-        <f>I3-(G3-A3)/J3</f>
+        <f t="shared" ref="L3:L13" si="2">I3-(G3-A3)/J3</f>
         <v>3.7551020408163254</v>
       </c>
       <c r="M3">
@@ -508,11 +508,11 @@
         <v>74.900000000000006</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D13" si="0">(B4-C4)/B4*100</f>
+        <f t="shared" ref="D4:D13" si="3">(B4-C4)/B4*100</f>
         <v>5.3097345132743223</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E13" si="1">(C4-A4)/I4</f>
+        <f t="shared" ref="E4:E13" si="4">(C4-A4)/I4</f>
         <v>1.7785714285714289</v>
       </c>
       <c r="F4">
@@ -528,19 +528,19 @@
         <v>14</v>
       </c>
       <c r="J4" s="1">
-        <f>(H4-A4)/I4</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="K4" s="1">
-        <f>I4-(F4-A4)/J4</f>
+        <f t="shared" si="1"/>
         <v>7.2363636363636354</v>
       </c>
       <c r="L4" s="1">
-        <f>I4-(G4-A4)/J4</f>
+        <f t="shared" si="2"/>
         <v>3.8181818181818183</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M13" si="2">K4/L4</f>
+        <f t="shared" ref="M4:M13" si="5">K4/L4</f>
         <v>1.8952380952380949</v>
       </c>
     </row>
@@ -555,11 +555,11 @@
         <v>92.85</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.7020648967551697</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.2749999999999997</v>
       </c>
       <c r="F5">
@@ -575,19 +575,19 @@
         <v>14</v>
       </c>
       <c r="J5" s="1">
-        <f>(H5-A5)/I5</f>
+        <f t="shared" si="0"/>
         <v>8.9285714285714288</v>
       </c>
       <c r="K5" s="1">
-        <f>I5-(F5-A5)/J5</f>
+        <f t="shared" si="1"/>
         <v>6.7983999999999991</v>
       </c>
       <c r="L5" s="1">
-        <f>I5-(G5-A5)/J5</f>
+        <f t="shared" si="2"/>
         <v>3.6959999999999997</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.8393939393939394</v>
       </c>
     </row>
@@ -602,11 +602,11 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.9400630914826484</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="F6">
@@ -622,19 +622,19 @@
         <v>14</v>
       </c>
       <c r="J6" s="1">
-        <f>(H6-A6)/I6</f>
+        <f t="shared" si="0"/>
         <v>12.428571428571429</v>
       </c>
       <c r="K6" s="1">
-        <f>I6-(F6-A6)/J6</f>
+        <f t="shared" si="1"/>
         <v>6.5494252873563221</v>
       </c>
       <c r="L6" s="1">
-        <f>I6-(G6-A6)/J6</f>
+        <f t="shared" si="2"/>
         <v>3.7816091954022983</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7319148936170217</v>
       </c>
       <c r="N6" s="1">
@@ -653,11 +653,11 @@
         <v>137</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14.106583072100312</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="F7">
@@ -673,19 +673,19 @@
         <v>14</v>
       </c>
       <c r="J7" s="1">
-        <f>(H7-A7)/I7</f>
+        <f t="shared" si="0"/>
         <v>14.785714285714286</v>
       </c>
       <c r="K7" s="1">
-        <f>I7-(F7-A7)/J7</f>
+        <f t="shared" si="1"/>
         <v>5.4917874396135264</v>
       </c>
       <c r="L7" s="1">
-        <f>I7-(G7-A7)/J7</f>
+        <f t="shared" si="2"/>
         <v>3.8550724637681171</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.4245614035087715</v>
       </c>
       <c r="N7" s="1">
@@ -704,11 +704,11 @@
         <v>205</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-8.2365364308342102</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.9285714285714284</v>
       </c>
       <c r="F8">
@@ -724,19 +724,19 @@
         <v>14</v>
       </c>
       <c r="J8" s="1">
-        <f>(H8-A8)/I8</f>
+        <f t="shared" si="0"/>
         <v>17.214285714285715</v>
       </c>
       <c r="K8" s="1">
-        <f>I8-(F8-A8)/J8</f>
+        <f t="shared" si="1"/>
         <v>5.3734439834024901</v>
       </c>
       <c r="L8" s="1">
-        <f>I8-(G8-A8)/J8</f>
+        <f t="shared" si="2"/>
         <v>3.8921161825726145</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.380597014925373</v>
       </c>
       <c r="N8">
@@ -755,11 +755,11 @@
         <v>234</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-11.694510739856803</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.2142857142857144</v>
       </c>
       <c r="F9">
@@ -775,19 +775,19 @@
         <v>14</v>
       </c>
       <c r="J9" s="1">
-        <f>(H9-A9)/I9</f>
+        <f t="shared" si="0"/>
         <v>19.571428571428573</v>
       </c>
       <c r="K9" s="1">
-        <f>I9-(F9-A9)/J9</f>
+        <f t="shared" si="1"/>
         <v>6.1364963503649657</v>
       </c>
       <c r="L9" s="1">
-        <f>I9-(G9-A9)/J9</f>
+        <f t="shared" si="2"/>
         <v>3.8832116788321169</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5802631578947373</v>
       </c>
     </row>
@@ -802,11 +802,11 @@
         <v>254</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9.6718480138169287</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.8571428571428572</v>
       </c>
       <c r="F10">
@@ -822,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="J10" s="1">
-        <f>(H10-A10)/I10</f>
+        <f t="shared" si="0"/>
         <v>21.428571428571427</v>
       </c>
       <c r="K10" s="1">
-        <f>I10-(F10-A10)/J10</f>
+        <f t="shared" si="1"/>
         <v>7.3313333333333341</v>
       </c>
       <c r="L10" s="1">
-        <f>I10-(G10-A10)/J10</f>
+        <f t="shared" si="2"/>
         <v>3.92</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.8702380952380955</v>
       </c>
     </row>
@@ -849,11 +849,11 @@
         <v>265</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-5.2422557585385183</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="F11">
@@ -869,19 +869,19 @@
         <v>14</v>
       </c>
       <c r="J11" s="1">
-        <f>(H11-A11)/I11</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="K11" s="1">
-        <f>I11-(F11-A11)/J11</f>
+        <f t="shared" si="1"/>
         <v>8.1318181818181809</v>
       </c>
       <c r="L11" s="1">
-        <f>I11-(G11-A11)/J11</f>
+        <f t="shared" si="2"/>
         <v>3.5909090909090917</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.2645569620253156</v>
       </c>
     </row>
@@ -896,11 +896,11 @@
         <v>270</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.925172539048315</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="F12">
@@ -916,19 +916,19 @@
         <v>14</v>
       </c>
       <c r="J12" s="1">
-        <f>(H12-A12)/I12</f>
+        <f t="shared" si="0"/>
         <v>23.857142857142858</v>
       </c>
       <c r="K12" s="1">
-        <f>I12-(F12-A12)/J12</f>
+        <f t="shared" si="1"/>
         <v>8.9029940119760482</v>
       </c>
       <c r="L12" s="1">
-        <f>I12-(G12-A12)/J12</f>
+        <f t="shared" si="2"/>
         <v>3.9820359281437128</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.2357894736842105</v>
       </c>
     </row>
@@ -943,11 +943,11 @@
         <v>299</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.33557046979865773</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="F13">
@@ -963,19 +963,19 @@
         <v>14</v>
       </c>
       <c r="J13" s="1">
-        <f>(H13-A13)/I13</f>
+        <f t="shared" si="0"/>
         <v>24.214285714285715</v>
       </c>
       <c r="K13" s="1">
-        <f>I13-(F13-A13)/J13</f>
+        <f t="shared" si="1"/>
         <v>9.4530973451327434</v>
       </c>
       <c r="L13" s="1">
-        <f>I13-(G13-A13)/J13</f>
+        <f t="shared" si="2"/>
         <v>4.00589970501475</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.3597938144329893</v>
       </c>
     </row>
